--- a/data/trans_dic/P04B1_2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.7216998639575771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7023217298582898</v>
+        <v>0.7023217298582899</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6408316331597326</v>
+        <v>0.6455565487351435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6945951298979997</v>
+        <v>0.6931632095511637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6761463855830387</v>
+        <v>0.6775396749746356</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7161620794970107</v>
+        <v>0.7194765765810455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7501610537039652</v>
+        <v>0.7477530593687822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7234395956092055</v>
+        <v>0.7244143722957952</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5984843624396815</v>
+        <v>0.5984843624396816</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.6056576523871465</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5643603350161043</v>
+        <v>0.5628016473663748</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5767966752248398</v>
+        <v>0.5771664425020459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5801617643482591</v>
+        <v>0.5784682918812347</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6329497749527049</v>
+        <v>0.6341893560915491</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6294623270121327</v>
+        <v>0.6309307182557207</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6231425133796724</v>
+        <v>0.6229327672980648</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7398161961605836</v>
+        <v>0.7398161961605834</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6856685397092278</v>
+        <v>0.685668539709228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7125803270466774</v>
+        <v>0.7125803270466775</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7070258164631363</v>
+        <v>0.7048015102633355</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.651260950053783</v>
+        <v>0.6598201173294317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6892160230657547</v>
+        <v>0.6875785026319386</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7708131994648696</v>
+        <v>0.7714282242576002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7139766385206135</v>
+        <v>0.7164504964008765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7354552514216508</v>
+        <v>0.7350483925717081</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.5385086639384991</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5223557153245914</v>
+        <v>0.5223557153245915</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.5299268870687663</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5030812944390026</v>
+        <v>0.5043197651816541</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4982564117776435</v>
+        <v>0.4947291926221623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5070295109080415</v>
+        <v>0.5090419083345258</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5718020217509834</v>
+        <v>0.5718861297072282</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5474541724245123</v>
+        <v>0.5497109521033416</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.552449325073506</v>
+        <v>0.5528048016828547</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6301327103648724</v>
+        <v>0.6301327103648725</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6208978866876076</v>
+        <v>0.6208978866876077</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6253827974710194</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6108554873863492</v>
+        <v>0.612080781362375</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6065364816727153</v>
+        <v>0.6052384492704475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6137664964667463</v>
+        <v>0.6140143281902112</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6474212665950224</v>
+        <v>0.6476073703850245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.635588635605546</v>
+        <v>0.6341591910174851</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6375886493269699</v>
+        <v>0.6370759993356844</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>441935</v>
+        <v>445194</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>509487</v>
+        <v>508437</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>962244</v>
+        <v>964227</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>493885</v>
+        <v>496171</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>550245</v>
+        <v>548478</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1029549</v>
+        <v>1030936</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>590742</v>
+        <v>589110</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>617056</v>
+        <v>617452</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1227937</v>
+        <v>1224353</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>662538</v>
+        <v>663835</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>673398</v>
+        <v>674968</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1318908</v>
+        <v>1318464</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>566960</v>
+        <v>565177</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>528532</v>
+        <v>535478</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1112014</v>
+        <v>1109371</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>618111</v>
+        <v>618604</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>579429</v>
+        <v>581437</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1186618</v>
+        <v>1185962</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>496342</v>
+        <v>497563</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>557198</v>
+        <v>553253</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1067245</v>
+        <v>1071481</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>564142</v>
+        <v>564225</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>612215</v>
+        <v>614739</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1162849</v>
+        <v>1163598</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2153187</v>
+        <v>2157506</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2264290</v>
+        <v>2259444</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4454728</v>
+        <v>4456527</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2282076</v>
+        <v>2282732</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2372746</v>
+        <v>2367409</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4627630</v>
+        <v>4623909</v>
       </c>
     </row>
     <row r="24">
